--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB7C24-5ABD-4A5B-823C-A7FDD720A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C48092-6BE4-41C5-B173-71D07D1621AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18825" yWindow="510" windowWidth="16995" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19440" yWindow="3555" windowWidth="18300" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>SUELDOS: SAC 2025</t>
   </si>
   <si>
-    <t>SUELDOS: AGOSTO 2025</t>
+    <t>SUELDOS: SEPTIEMBRE 2025</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +242,6 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -567,7 +561,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,27 +697,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,9 +708,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="2" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,7 +733,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1059,51 +1032,51 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
@@ -1155,13 +1128,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
@@ -1178,13 +1151,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
@@ -1201,13 +1174,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
@@ -1224,13 +1197,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1247,13 +1220,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1270,13 +1243,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1293,13 +1266,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1312,35 +1285,35 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+    </row>
+    <row r="14" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1371,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1394,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1417,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1442,7 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1465,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -1515,7 +1488,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -1558,42 +1531,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1603,33 +1576,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1639,53 +1612,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1695,17 +1668,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1715,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C48092-6BE4-41C5-B173-71D07D1621AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB0503-863A-4119-9CDA-E6DBD614718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19440" yWindow="3555" windowWidth="18300" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -561,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,6 +710,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1056,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1076,7 +1100,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
@@ -1128,13 +1152,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
@@ -1151,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
@@ -1174,13 +1198,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
@@ -1197,13 +1221,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1220,13 +1244,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1243,13 +1267,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1266,13 +1290,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1313,7 +1337,7 @@
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
     </row>
-    <row r="14" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
@@ -1371,7 +1395,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
@@ -1394,7 +1418,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1441,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1466,7 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="22" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1489,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -1488,7 +1512,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -1533,26 +1557,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoxiePC\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB0503-863A-4119-9CDA-E6DBD614718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18FED96-8E02-4CC3-AF60-7E3D1B3F4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +242,6 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -567,7 +561,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,29 +706,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,7 +733,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1056,23 +1032,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>30</v>
       </c>
@@ -1087,7 +1063,7 @@
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -1100,7 +1076,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
@@ -1152,13 +1128,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="54"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
@@ -1175,13 +1151,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
@@ -1198,13 +1174,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="56"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
-    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
@@ -1221,13 +1197,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1244,13 +1220,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
-    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1267,13 +1243,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="58"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1290,13 +1266,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1309,7 +1285,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1300,7 @@
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -1337,7 +1313,7 @@
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
     </row>
-    <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
@@ -1395,7 +1371,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1394,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1417,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1442,7 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
         <v>17</v>
       </c>
@@ -1489,7 +1465,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -1512,7 +1488,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -1555,42 +1531,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1600,33 +1576,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1636,53 +1612,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1692,17 +1668,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1712,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoxiePC\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18FED96-8E02-4CC3-AF60-7E3D1B3F4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE7611-329B-4732-BEE1-E7112D2EC88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21408" yWindow="24" windowWidth="18504" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -561,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,11 +712,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="2" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,7 +757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1032,23 +1056,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>30</v>
       </c>
@@ -1063,7 +1087,7 @@
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -1076,7 +1100,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
@@ -1128,13 +1152,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
@@ -1151,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
@@ -1174,13 +1198,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
@@ -1197,13 +1221,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1220,13 +1244,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1243,13 +1267,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1266,13 +1290,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1285,7 +1309,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
@@ -1300,7 +1324,7 @@
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -1313,7 +1337,7 @@
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
     </row>
-    <row r="14" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
@@ -1371,7 +1395,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
@@ -1394,7 +1418,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1441,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1466,7 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="22" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1489,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -1488,7 +1512,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -1531,42 +1555,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1576,33 +1600,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1612,53 +1636,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1668,17 +1692,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1688,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE7611-329B-4732-BEE1-E7112D2EC88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E17D39-8B16-42D0-84FA-5C003AB1D46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21408" yWindow="24" windowWidth="18504" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21120" yWindow="420" windowWidth="18948" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,6 +703,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,22 +730,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1073,32 +1076,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1152,9 +1155,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="54"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
@@ -1175,9 +1178,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="55"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
@@ -1198,9 +1201,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="56"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
@@ -1221,9 +1224,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
@@ -1244,9 +1247,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
@@ -1267,9 +1270,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="58"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
@@ -1290,9 +1293,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>
@@ -1310,32 +1313,32 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1570,10 +1573,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1606,10 +1609,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1642,8 +1645,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1662,10 +1665,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E17D39-8B16-42D0-84FA-5C003AB1D46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94960250-A1E2-4F74-AAD4-337D71376E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21120" yWindow="420" windowWidth="18948" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="2475" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -721,6 +721,9 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,9 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1076,32 +1076,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1272,7 +1272,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="55"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
@@ -1313,32 +1313,32 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1573,10 +1573,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1609,10 +1609,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1645,8 +1645,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1665,10 +1665,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94960250-A1E2-4F74-AAD4-337D71376E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A86F53-2A3D-4E88-A2FC-DE3F5CAA548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="2475" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18825" yWindow="405" windowWidth="16995" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -735,9 +735,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,7 +760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1059,23 +1059,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="J1" s="58"/>
       <c r="K1" s="58"/>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -1103,7 +1103,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="51"/>
-      <c r="H4" s="32"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
-    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
-    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1312,7 +1312,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>29</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="J12" s="58"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -1340,7 +1340,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="22" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A20" s="20" t="s">
         <v>18</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -1558,42 +1558,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1603,33 +1603,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1639,53 +1639,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1695,17 +1695,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A86F53-2A3D-4E88-A2FC-DE3F5CAA548D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96149F7A-4B01-4D0F-9EC9-1E16FA4DCF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18825" yWindow="405" windowWidth="16995" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="52"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96149F7A-4B01-4D0F-9EC9-1E16FA4DCF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9D16FB-E51D-4F3D-9F9B-8628ACB2C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18825" yWindow="405" windowWidth="16995" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18825" yWindow="405" windowWidth="16470" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="37"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="53"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="54"/>
-      <c r="H8" s="42"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="54"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="55"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>

--- a/09-septiembre/6-portal-cliente/DETALLE.xlsx
+++ b/09-septiembre/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9D16FB-E51D-4F3D-9F9B-8628ACB2C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A133DB6B-1458-4046-92A3-830ACB3BEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18825" yWindow="405" windowWidth="16470" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26670" yWindow="375" windowWidth="20145" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
